--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200314.4418354221</v>
+        <v>200734.0278504912</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12936495.09829997</v>
+        <v>12617883.90382516</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11255880.80187739</v>
+        <v>10943609.97017262</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6036605.923208196</v>
+        <v>6167748.032484914</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135.6268595587068</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -725,7 +727,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>43.7775672649076</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>52.78076342756878</v>
+        <v>159.6908732144031</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>139.8600882386058</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -874,7 +876,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>136.1769805884549</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -962,7 +964,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7619864775174</v>
+        <v>353.8766502980249</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +983,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,19 +1028,19 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>100.902331253093</v>
       </c>
       <c r="X6" t="n">
-        <v>106.3499200337714</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -1133,16 +1135,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>353.8766502980249</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>379.8866644877579</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -1224,13 +1226,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>107.2569099399857</v>
+        <v>170.4521047352164</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>98.94574135710913</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>343.6465684039911</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>93.95221513594197</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>42.05236239524908</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>72.1533939828054</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>258.1583233478934</v>
+      </c>
+      <c r="G14" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>292.0716713018085</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="15">
@@ -1689,19 +1691,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>6.92691122580971</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
         <v>20.54110546596223</v>
@@ -1734,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>159.6908732144031</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>343.646568403991</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>390.1527797502169</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1934,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
         <v>157.7484451748619</v>
@@ -1989,7 +1991,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>57.16999246801792</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>129.9555967672234</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>222.4290873901311</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>12.08652753855626</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>72.87064043703845</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2327,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>96.68282767845835</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>11.89439304893054</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>42.43741174507632</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>136.1769805884549</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>261.17478890507</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>383.5604440308334</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
         <v>157.7484451748619</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2719,16 +2721,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>63.42131720526646</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>146.6658731577526</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>90.6928079498296</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>153.0251390105128</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.59727000201259</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>95.71480033033009</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3272,19 +3274,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>341.0342709051434</v>
+        <v>188.5321199722571</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
@@ -3433,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.89572509772586</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9706214097031</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3503,16 +3505,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>353.4874860474815</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>73.97854195327571</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>21.30608602554484</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3721,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.7440501992505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>337.6313882722457</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>294.7228925766556</v>
       </c>
     </row>
     <row r="42">
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
         <v>157.7484451748619</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3958,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>212.7440501992505</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>117.637327579476</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4040,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.89083853279845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>15.09023863101106</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>38.60758992810583</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4147,10 +4149,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>61.12053215227972</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4331,25 +4333,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>671.6489458004863</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L2" t="n">
-        <v>671.6489458004863</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M2" t="n">
-        <v>1057.900197753201</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N2" t="n">
-        <v>1174.359867048153</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O2" t="n">
-        <v>1174.359867048153</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P2" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q2" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R2" t="n">
         <v>1560.611119000868</v>
@@ -4361,19 +4363,19 @@
         <v>1203.123559741827</v>
       </c>
       <c r="U2" t="n">
-        <v>946.0630680013373</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V2" t="n">
-        <v>946.0630680013373</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="W2" t="n">
-        <v>562.302767136506</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="X2" t="n">
-        <v>168.209050217095</v>
+        <v>75.43198729406544</v>
       </c>
       <c r="Y2" t="n">
-        <v>168.209050217095</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="3">
@@ -4407,40 +4409,40 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K3" t="n">
-        <v>610.2763318953653</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L3" t="n">
-        <v>610.2763318953653</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M3" t="n">
-        <v>824.5154023641696</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N3" t="n">
-        <v>824.5154023641696</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="O3" t="n">
-        <v>1210.766654316884</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="P3" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q3" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T3" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U3" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V3" t="n">
         <v>1399.307206663087</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.0472404340999</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="C4" t="n">
-        <v>629.0472404340999</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="D4" t="n">
-        <v>629.0472404340999</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0472404340999</v>
+        <v>605.6889309473233</v>
       </c>
       <c r="F4" t="n">
-        <v>464.4161145446911</v>
+        <v>464.4161145446913</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>297.1657234702346</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>147.5582682756913</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001747</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522802</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875266</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4522,16 +4524,16 @@
         <v>766.5997460790038</v>
       </c>
       <c r="V4" t="n">
-        <v>629.0472404340999</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="W4" t="n">
-        <v>629.0472404340999</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="X4" t="n">
-        <v>629.0472404340999</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="Y4" t="n">
-        <v>629.0472404340999</v>
+        <v>766.5997460790038</v>
       </c>
     </row>
     <row r="5">
@@ -4565,52 +4567,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L5" t="n">
-        <v>417.4634743327321</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="M5" t="n">
-        <v>803.7147262854468</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="N5" t="n">
-        <v>1189.965978238161</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O5" t="n">
-        <v>1189.965978238161</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P5" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R5" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T5" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U5" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.492489131449</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W5" t="n">
-        <v>691.7321882666176</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="X5" t="n">
-        <v>297.6384713472066</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618.5472599225079</v>
+        <v>480.5903684413843</v>
       </c>
       <c r="C6" t="n">
-        <v>484.5521886714537</v>
+        <v>346.59529719033</v>
       </c>
       <c r="D6" t="n">
-        <v>367.6550308908461</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="E6" t="n">
-        <v>247.1622148831741</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="F6" t="n">
-        <v>138.2023350656787</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G6" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H6" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
@@ -4647,22 +4649,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>610.2763318953653</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L6" t="n">
-        <v>996.52758384808</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="M6" t="n">
-        <v>1382.778835800795</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.051599638238</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.051599638238</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P6" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q6" t="n">
         <v>1531.051599638238</v>
@@ -4674,22 +4676,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T6" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U6" t="n">
-        <v>1452.621109115176</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V6" t="n">
-        <v>1238.90958210821</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W6" t="n">
-        <v>1025.676413844539</v>
+        <v>780.295360713141</v>
       </c>
       <c r="X6" t="n">
-        <v>918.2522521942645</v>
+        <v>780.295360713141</v>
       </c>
       <c r="Y6" t="n">
-        <v>758.8502925580946</v>
+        <v>620.893401076971</v>
       </c>
     </row>
     <row r="7">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>782.7571012166252</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C8" t="n">
-        <v>782.7571012166252</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D8" t="n">
-        <v>782.7571012166252</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E8" t="n">
-        <v>388.6633842972142</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F8" t="n">
         <v>31.21222238001735</v>
@@ -4802,52 +4804,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J8" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K8" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L8" t="n">
-        <v>1057.900197753201</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M8" t="n">
-        <v>1133.803221358588</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N8" t="n">
-        <v>1133.803221358588</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O8" t="n">
-        <v>1133.803221358588</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P8" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R8" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W8" t="n">
-        <v>1176.850818136036</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X8" t="n">
-        <v>1176.850818136036</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y8" t="n">
-        <v>1176.850818136036</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>511.5571472368467</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C9" t="n">
-        <v>377.5620759857924</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D9" t="n">
-        <v>260.6649182051848</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E9" t="n">
-        <v>140.1721021975128</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F9" t="n">
-        <v>31.21222238001735</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G9" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
@@ -4884,22 +4886,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>372.2978437800934</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L9" t="n">
-        <v>758.5490957328082</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M9" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N9" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O9" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q9" t="n">
         <v>1531.051599638238</v>
@@ -4917,16 +4919,16 @@
         <v>1095.928434440403</v>
       </c>
       <c r="V9" t="n">
-        <v>1095.928434440403</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W9" t="n">
-        <v>987.5881213697105</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="X9" t="n">
-        <v>811.2621395086032</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="Y9" t="n">
-        <v>651.8601798724333</v>
+        <v>710.0430642665517</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.21222238001735</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="C10" t="n">
-        <v>31.21222238001735</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D10" t="n">
-        <v>31.21222238001735</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E10" t="n">
-        <v>31.21222238001735</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F10" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4993,19 +4995,19 @@
         <v>1049.39789353288</v>
       </c>
       <c r="U10" t="n">
-        <v>766.5997460790038</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="V10" t="n">
-        <v>492.7140010185257</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="W10" t="n">
-        <v>213.6443365274001</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="X10" t="n">
-        <v>31.21222238001735</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.21222238001735</v>
+        <v>1049.39789353288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>117.5639850629442</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="C11" t="n">
-        <v>117.5639850629442</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="D11" t="n">
-        <v>117.5639850629442</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="E11" t="n">
-        <v>117.5639850629442</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="F11" t="n">
-        <v>117.5639850629442</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G11" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H11" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I11" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J11" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K11" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L11" t="n">
-        <v>417.4634743327321</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="M11" t="n">
-        <v>803.7147262854468</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N11" t="n">
-        <v>1189.965978238161</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O11" t="n">
-        <v>1560.611119000868</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P11" t="n">
-        <v>1560.611119000868</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q11" t="n">
         <v>1560.611119000868</v>
@@ -5066,25 +5068,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S11" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T11" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U11" t="n">
-        <v>946.0630680013373</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V11" t="n">
-        <v>596.225513337818</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W11" t="n">
-        <v>212.4652124729866</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X11" t="n">
-        <v>117.5639850629442</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y11" t="n">
-        <v>117.5639850629442</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J12" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K12" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L12" t="n">
-        <v>372.2978437800934</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M12" t="n">
-        <v>758.5490957328082</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N12" t="n">
-        <v>1144.800347685523</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="O12" t="n">
-        <v>1144.800347685523</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P12" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q12" t="n">
         <v>1531.051599638238</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>836.9496357110235</v>
+        <v>339.6428572028094</v>
       </c>
       <c r="C13" t="n">
-        <v>665.85626327274</v>
+        <v>339.6428572028094</v>
       </c>
       <c r="D13" t="n">
-        <v>506.36161859565</v>
+        <v>339.6428572028094</v>
       </c>
       <c r="E13" t="n">
-        <v>345.4508034639695</v>
+        <v>339.6428572028094</v>
       </c>
       <c r="F13" t="n">
-        <v>180.8196775745607</v>
+        <v>339.6428572028094</v>
       </c>
       <c r="G13" t="n">
-        <v>180.8196775745607</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H13" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I13" t="n">
         <v>31.21222238001735</v>
@@ -5224,25 +5226,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S13" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T13" t="n">
-        <v>1560.611119000868</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U13" t="n">
-        <v>1560.611119000868</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.611119000868</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W13" t="n">
-        <v>1487.72890285662</v>
+        <v>577.986719343126</v>
       </c>
       <c r="X13" t="n">
-        <v>1249.385040716303</v>
+        <v>339.6428572028094</v>
       </c>
       <c r="Y13" t="n">
-        <v>1024.649342105068</v>
+        <v>339.6428572028094</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1031.236326875557</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C14" t="n">
-        <v>637.1426099561463</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="D14" t="n">
-        <v>637.1426099561463</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="E14" t="n">
-        <v>342.1207197522994</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="F14" t="n">
-        <v>342.1207197522994</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="G14" t="n">
-        <v>342.1207197522994</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H14" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I14" t="n">
         <v>31.21222238001735</v>
@@ -5279,16 +5281,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K14" t="n">
-        <v>31.21222238001735</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L14" t="n">
-        <v>417.4634743327321</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M14" t="n">
-        <v>803.7147262854468</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N14" t="n">
-        <v>1189.965978238161</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O14" t="n">
         <v>1520.054473311303</v>
@@ -5303,25 +5305,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S14" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T14" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U14" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V14" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W14" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X14" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1425.330043794968</v>
+        <v>1166.517402081457</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>192.9527650369019</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C15" t="n">
-        <v>58.9576937858476</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D15" t="n">
-        <v>58.9576937858476</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E15" t="n">
-        <v>51.96081375977718</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F15" t="n">
-        <v>51.96081375977718</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G15" t="n">
-        <v>51.96081375977718</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H15" t="n">
         <v>51.96081375977718</v>
@@ -5364,10 +5366,10 @@
         <v>372.2978437800934</v>
       </c>
       <c r="M15" t="n">
-        <v>372.2978437800934</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N15" t="n">
-        <v>758.5490957328082</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O15" t="n">
         <v>1144.800347685523</v>
@@ -5382,25 +5384,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S15" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T15" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U15" t="n">
-        <v>1095.928434440403</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V15" t="n">
-        <v>882.216907433437</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="W15" t="n">
-        <v>668.9837391697657</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X15" t="n">
-        <v>492.6577573086585</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y15" t="n">
-        <v>333.2557976724885</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.546072681154</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C16" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D16" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E16" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F16" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G16" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H16" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I16" t="n">
         <v>31.21222238001735</v>
@@ -5458,28 +5460,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S16" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T16" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U16" t="n">
-        <v>1560.611119000868</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V16" t="n">
-        <v>1560.611119000868</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.611119000868</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="X16" t="n">
-        <v>1532.981477686434</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="Y16" t="n">
-        <v>1308.245779075198</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>772.4236851620456</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C17" t="n">
-        <v>772.4236851620456</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D17" t="n">
-        <v>772.4236851620456</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E17" t="n">
-        <v>772.4236851620456</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>425.3059392994284</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>285.3976938477716</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M17" t="n">
-        <v>466.9476083001462</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N17" t="n">
-        <v>466.9476083001462</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
-        <v>853.1988602528609</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
-        <v>1239.450112205576</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>1166.517402081457</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>772.4236851620456</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>402.5972674193512</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C18" t="n">
-        <v>268.6021961682969</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D18" t="n">
-        <v>151.7050383876894</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E18" t="n">
-        <v>31.21222238001735</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F18" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L18" t="n">
-        <v>610.2763318953653</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M18" t="n">
-        <v>788.1086150954382</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N18" t="n">
-        <v>788.1086150954382</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O18" t="n">
-        <v>1174.359867048153</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P18" t="n">
-        <v>1560.611119000868</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q18" t="n">
-        <v>1560.611119000868</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S18" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T18" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
-        <v>600.6477671943499</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>542.9003000549378</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>913.4705887312657</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C19" t="n">
-        <v>913.4705887312657</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D19" t="n">
-        <v>753.9759440541757</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E19" t="n">
-        <v>593.0651289224952</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F19" t="n">
-        <v>428.4340030330865</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G19" t="n">
-        <v>297.1657234702345</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M19" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O19" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P19" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1475.338400676267</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1475.338400676267</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T19" t="n">
-        <v>1475.338400676267</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U19" t="n">
-        <v>1192.540253222391</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V19" t="n">
-        <v>1192.540253222391</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W19" t="n">
-        <v>913.4705887312657</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X19" t="n">
-        <v>913.4705887312657</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y19" t="n">
-        <v>913.4705887312657</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1097.595934211262</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C20" t="n">
-        <v>687.4713435245318</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D20" t="n">
-        <v>687.4713435245318</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E20" t="n">
-        <v>687.4713435245318</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>266.4409314782193</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>266.4409314782193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O20" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5783,19 +5785,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959273</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962253</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O21" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5865,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.8616862216745</v>
+        <v>596.8607653001708</v>
       </c>
       <c r="C22" t="n">
-        <v>495.8616862216745</v>
+        <v>596.8607653001708</v>
       </c>
       <c r="D22" t="n">
-        <v>495.8616862216745</v>
+        <v>596.8607653001708</v>
       </c>
       <c r="E22" t="n">
-        <v>334.950871089994</v>
+        <v>596.8607653001708</v>
       </c>
       <c r="F22" t="n">
-        <v>170.3197452005853</v>
+        <v>432.229639410762</v>
       </c>
       <c r="G22" t="n">
-        <v>158.1111315252759</v>
+        <v>264.9792483363054</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>115.3717931417621</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5938,22 +5940,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U22" t="n">
-        <v>1048.817095773278</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V22" t="n">
-        <v>774.9313507128002</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W22" t="n">
-        <v>495.8616862216745</v>
+        <v>1009.29617030545</v>
       </c>
       <c r="X22" t="n">
-        <v>495.8616862216745</v>
+        <v>1009.29617030545</v>
       </c>
       <c r="Y22" t="n">
-        <v>495.8616862216745</v>
+        <v>784.5604716942152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>954.0130281207041</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C23" t="n">
-        <v>543.8884374339742</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D23" t="n">
-        <v>139.4245075270347</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E23" t="n">
-        <v>139.4245075270347</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L23" t="n">
-        <v>1209.69369432892</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M23" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N23" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O23" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P23" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q23" t="n">
         <v>2047.697635790537</v>
@@ -6023,16 +6025,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>1354.656425951752</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>954.0130281207041</v>
+        <v>2076.239743046839</v>
       </c>
       <c r="Y23" t="n">
-        <v>954.0130281207041</v>
+        <v>1675.303069994929</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6065,25 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L24" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P24" t="n">
         <v>2088.254281480102</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.63115809937611</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="C25" t="n">
-        <v>41.76508562960205</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="D25" t="n">
-        <v>41.76508562960205</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="E25" t="n">
-        <v>41.76508562960205</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F25" t="n">
-        <v>41.76508562960205</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960205</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L25" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M25" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N25" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O25" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P25" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S25" t="n">
-        <v>1571.163982250452</v>
+        <v>1816.589795035411</v>
       </c>
       <c r="T25" t="n">
-        <v>1571.163982250452</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U25" t="n">
-        <v>1288.365834796576</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V25" t="n">
-        <v>1014.480089736098</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="W25" t="n">
-        <v>735.4104252449724</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="X25" t="n">
-        <v>497.0665631046558</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="Y25" t="n">
-        <v>272.3308644934205</v>
+        <v>1156.690402913334</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>860.0557577311233</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C26" t="n">
-        <v>860.0557577311233</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D26" t="n">
-        <v>860.0557577311233</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E26" t="n">
-        <v>860.0557577311233</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F26" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G26" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M26" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N26" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
@@ -6254,22 +6256,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.766722221062</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U26" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>1123.868675817053</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W26" t="n">
-        <v>860.0557577311233</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X26" t="n">
-        <v>860.0557577311233</v>
+        <v>352.673583001884</v>
       </c>
       <c r="Y26" t="n">
-        <v>860.0557577311233</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>690.384199457534</v>
+        <v>675.164428100838</v>
       </c>
       <c r="L27" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M27" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N27" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O27" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q27" t="n">
         <v>2058.694762117472</v>
@@ -6336,7 +6338,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V27" t="n">
         <v>1409.860069912671</v>
@@ -6348,7 +6350,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.2073714114977</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="C28" t="n">
-        <v>758.1139989732142</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D28" t="n">
-        <v>598.6193542961241</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E28" t="n">
-        <v>437.7085391644436</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0774132750349</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G28" t="n">
-        <v>105.8270222005783</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6415,19 +6417,19 @@
         <v>1485.891263925851</v>
       </c>
       <c r="U28" t="n">
-        <v>1203.093116471976</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V28" t="n">
-        <v>929.2073714114977</v>
+        <v>1212.005518865373</v>
       </c>
       <c r="W28" t="n">
-        <v>929.2073714114977</v>
+        <v>932.9358543742478</v>
       </c>
       <c r="X28" t="n">
-        <v>929.2073714114977</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y28" t="n">
-        <v>929.2073714114977</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1695.988587952916</v>
+        <v>543.4985732353517</v>
       </c>
       <c r="C29" t="n">
-        <v>1285.863997266186</v>
+        <v>133.3739825486218</v>
       </c>
       <c r="D29" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E29" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L29" t="n">
-        <v>1329.636426430007</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M29" t="n">
-        <v>1329.636426430007</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N29" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6497,16 +6499,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>953.7197528998412</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K30" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971428</v>
       </c>
       <c r="L30" t="n">
-        <v>537.7254774811266</v>
+        <v>187.8810127971428</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.568412147452</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N30" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>367.429305553252</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="C31" t="n">
-        <v>196.3359331149685</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D31" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E31" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6643,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S31" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T31" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U31" t="n">
-        <v>1571.163982250452</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.278237189974</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="W31" t="n">
-        <v>1018.208572698848</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="X31" t="n">
-        <v>779.8647105585317</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="Y31" t="n">
-        <v>555.1290119472964</v>
+        <v>960.0055634924552</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>860.6179604234998</v>
+        <v>944.4352462872616</v>
       </c>
       <c r="C32" t="n">
-        <v>450.4933697367699</v>
+        <v>944.4352462872616</v>
       </c>
       <c r="D32" t="n">
-        <v>450.4933697367699</v>
+        <v>944.4352462872616</v>
       </c>
       <c r="E32" t="n">
-        <v>450.4933697367699</v>
+        <v>944.4352462872616</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L32" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M32" t="n">
-        <v>812.7934917636817</v>
+        <v>176.0078249962694</v>
       </c>
       <c r="N32" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O32" t="n">
         <v>1209.69369432892</v>
@@ -6725,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>1730.766722221062</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W32" t="n">
-        <v>1347.00642135623</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X32" t="n">
-        <v>1347.00642135623</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="Y32" t="n">
-        <v>946.0697483043206</v>
+        <v>1354.656425951751</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L33" t="n">
-        <v>1014.414276561226</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M33" t="n">
-        <v>1531.257211227551</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="N33" t="n">
-        <v>1531.257211227551</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="O33" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6810,7 +6812,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U33" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V33" t="n">
         <v>1409.860069912671</v>
@@ -6822,7 +6824,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="34">
@@ -6847,19 +6849,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H34" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1695.912714533713</v>
+        <v>1046.790091043733</v>
       </c>
       <c r="C35" t="n">
-        <v>1285.788123846983</v>
+        <v>636.6655003570032</v>
       </c>
       <c r="D35" t="n">
-        <v>881.3241939400436</v>
+        <v>232.2015704500637</v>
       </c>
       <c r="E35" t="n">
-        <v>536.8451324196967</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F35" t="n">
-        <v>536.8451324196967</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G35" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L35" t="n">
-        <v>1329.636426430007</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M35" t="n">
-        <v>1846.479361096332</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N35" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O35" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1695.912714533713</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V35" t="n">
-        <v>1695.912714533713</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W35" t="n">
-        <v>1695.912714533713</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X35" t="n">
-        <v>1695.912714533713</v>
+        <v>1046.790091043733</v>
       </c>
       <c r="Y35" t="n">
-        <v>1695.912714533713</v>
+        <v>1046.790091043733</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F36" t="n">
         <v>240.2510026593071</v>
@@ -7008,34 +7010,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="L36" t="n">
-        <v>187.8810127971431</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M36" t="n">
-        <v>704.7239474634683</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N36" t="n">
-        <v>704.7239474634683</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O36" t="n">
-        <v>1221.566882129794</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P36" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7059,7 +7061,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.263917876656</v>
+        <v>884.8428321846941</v>
       </c>
       <c r="C37" t="n">
-        <v>362.1705454383725</v>
+        <v>713.7494597464106</v>
       </c>
       <c r="D37" t="n">
-        <v>202.6759007612826</v>
+        <v>554.2548150693206</v>
       </c>
       <c r="E37" t="n">
-        <v>41.76508562960205</v>
+        <v>393.34399993764</v>
       </c>
       <c r="F37" t="n">
-        <v>41.76508562960205</v>
+        <v>228.7128740482313</v>
       </c>
       <c r="G37" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7129,16 +7131,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V37" t="n">
-        <v>1463.112849513378</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W37" t="n">
-        <v>1184.043185022252</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X37" t="n">
-        <v>945.6993228819357</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y37" t="n">
-        <v>720.9636242707004</v>
+        <v>1072.542538578738</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320.545542556572</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C38" t="n">
-        <v>1320.545542556572</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D38" t="n">
-        <v>963.4874758419446</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E38" t="n">
-        <v>549.1472603588413</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L38" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M38" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N38" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O38" t="n">
-        <v>1329.636426430007</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P38" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1730.766722221062</v>
+        <v>2013.528481527298</v>
       </c>
       <c r="V38" t="n">
-        <v>1730.766722221062</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="W38" t="n">
-        <v>1730.766722221062</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="X38" t="n">
-        <v>1730.766722221062</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y38" t="n">
-        <v>1730.766722221062</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G39" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L39" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M39" t="n">
-        <v>704.7239474634683</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N39" t="n">
-        <v>1221.566882129794</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O39" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.6466025934674</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="C40" t="n">
-        <v>373.6466025934674</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="D40" t="n">
-        <v>373.6466025934674</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="E40" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F40" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S40" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T40" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U40" t="n">
-        <v>862.4253276531883</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V40" t="n">
-        <v>588.5395825927103</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W40" t="n">
-        <v>588.5395825927103</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X40" t="n">
-        <v>588.5395825927103</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y40" t="n">
-        <v>373.6466025934674</v>
+        <v>224.1971997769844</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1603.135651610684</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C41" t="n">
-        <v>1603.135651610684</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D41" t="n">
-        <v>1603.135651610684</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E41" t="n">
-        <v>1188.79543612758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F41" t="n">
-        <v>847.7536297919787</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G41" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M41" t="n">
-        <v>558.6080202959273</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N41" t="n">
-        <v>733.4074053521598</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O41" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
         <v>2088.254281480102</v>
@@ -7439,22 +7441,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U41" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V41" t="n">
-        <v>1603.135651610684</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W41" t="n">
-        <v>1603.135651610684</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X41" t="n">
-        <v>1603.135651610684</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="Y41" t="n">
-        <v>1603.135651610684</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F42" t="n">
         <v>240.2510026593071</v>
@@ -7482,34 +7484,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K42" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L42" t="n">
-        <v>704.7239474634683</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M42" t="n">
-        <v>704.7239474634683</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N42" t="n">
-        <v>704.7239474634683</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129794</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7533,7 +7535,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C43" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D43" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E43" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F43" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7594,25 +7596,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>588.5395825927103</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>588.5395825927103</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>588.5395825927103</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>342.1207197522994</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="C44" t="n">
-        <v>342.1207197522994</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="D44" t="n">
-        <v>342.1207197522994</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E44" t="n">
-        <v>342.1207197522994</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F44" t="n">
-        <v>342.1207197522994</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G44" t="n">
-        <v>342.1207197522994</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>40.13971065786654</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>426.3909626105813</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>812.642214563296</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M44" t="n">
-        <v>812.642214563296</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N44" t="n">
-        <v>812.642214563296</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O44" t="n">
-        <v>812.642214563296</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1834.147622860591</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1577.087131120101</v>
       </c>
       <c r="V44" t="n">
-        <v>1210.773564337348</v>
+        <v>1227.249576456582</v>
       </c>
       <c r="W44" t="n">
-        <v>827.0132634725169</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="X44" t="n">
-        <v>432.9195465531059</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.1207197522994</v>
+        <v>843.4892755917504</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>300.9427749225932</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>166.9477036715389</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D45" t="n">
-        <v>151.7050383876894</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>31.21222238001735</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21222238001735</v>
+        <v>62.5136770093618</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>401.8573631427234</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>788.1086150954382</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.359867048153</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N45" t="n">
-        <v>1174.359867048153</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O45" t="n">
-        <v>1174.359867048153</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>600.6477671943499</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.2458075581799</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1004.20002678548</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="C46" t="n">
-        <v>833.1066543471966</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="D46" t="n">
-        <v>673.6120096701065</v>
+        <v>429.0449379156203</v>
       </c>
       <c r="E46" t="n">
-        <v>512.7011945384261</v>
+        <v>268.1341227839398</v>
       </c>
       <c r="F46" t="n">
-        <v>348.0700686490173</v>
+        <v>103.5029968945311</v>
       </c>
       <c r="G46" t="n">
-        <v>180.8196775745607</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000868</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T46" t="n">
-        <v>1560.611119000868</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U46" t="n">
-        <v>1560.611119000868</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V46" t="n">
-        <v>1560.611119000868</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W46" t="n">
-        <v>1281.541454509742</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X46" t="n">
-        <v>1043.197592369425</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="Y46" t="n">
-        <v>1043.197592369425</v>
+        <v>588.5395825927103</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>479.289169423434</v>
+        <v>165.8061104867393</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M2" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>210.5483203474797</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8057,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>273.9673852220582</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8073,13 +8075,13 @@
         <v>447.9042587502169</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>435.5650983046296</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6381778130617</v>
+        <v>213.1214276537053</v>
       </c>
       <c r="M5" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
-        <v>102.6670282080047</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>202.9638619164196</v>
+        <v>239.7383945110978</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>169.9599452705675</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>467.3013218300598</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P8" t="n">
         <v>483.8021430311011</v>
@@ -8474,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>205.5962513072849</v>
+        <v>242.3707839019632</v>
       </c>
       <c r="L9" t="n">
         <v>446.2673035610659</v>
@@ -8547,10 +8549,10 @@
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L11" t="n">
-        <v>485.6381778130617</v>
+        <v>278.8691500349403</v>
       </c>
       <c r="M11" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>467.5788066992237</v>
+        <v>483.342555376</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>205.8849923335186</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M12" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>439.0569423018259</v>
       </c>
       <c r="P12" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8927,7 +8929,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>422.5591119693194</v>
       </c>
       <c r="L14" t="n">
         <v>485.6381778130617</v>
@@ -8939,7 +8941,7 @@
         <v>483.0650705068362</v>
       </c>
       <c r="O14" t="n">
-        <v>426.6124979218854</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -9012,13 +9014,13 @@
         <v>400.6454545179966</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N15" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O15" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>444.4124147530206</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>276.673976429141</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>483.342555376</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P17" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>446.2673035610659</v>
+        <v>527.2265162238735</v>
       </c>
       <c r="M18" t="n">
-        <v>237.1928526273799</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>447.9042587502169</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,25 +9406,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>63.89502594283636</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,16 +9640,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>611.1999600432426</v>
+        <v>292.3871721926162</v>
       </c>
       <c r="L23" t="n">
-        <v>496.3946935832877</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O23" t="n">
         <v>93.18977562578313</v>
@@ -9656,7 +9658,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9720,19 +9722,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>558.7215717793174</v>
       </c>
       <c r="P24" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9872,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
-        <v>594.2603172363631</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760184</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P26" t="n">
         <v>93.64936328088416</v>
@@ -9896,7 +9898,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9956,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276485</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M27" t="n">
-        <v>395.5690244730516</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -9969,10 +9971,10 @@
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10133,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>203.417628408394</v>
       </c>
       <c r="L30" t="n">
-        <v>362.3241544056888</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10346,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>228.8889510900428</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10425,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>528.0883472030761</v>
       </c>
       <c r="O33" t="n">
-        <v>237.1384347635729</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10449,7 +10451,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q35" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>332.1773130131619</v>
       </c>
       <c r="L36" t="n">
-        <v>203.7063694346278</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
         <v>89.13638967321712</v>
@@ -10829,22 +10831,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509097</v>
+        <v>229.2480899138815</v>
       </c>
       <c r="Q38" t="n">
-        <v>334.2508956958897</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>362.0354133794548</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>205.1561293621963</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11060,25 +11062,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N41" t="n">
-        <v>269.4773261669552</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11139,28 +11141,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>265.3595799407153</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728293</v>
+        <v>171.9933802602894</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>82.34125626042834</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6381778130617</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
@@ -11309,16 +11311,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
-        <v>483.8021430311011</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>430.2148138580559</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610659</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11391,13 +11393,13 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270.4921083091377</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -22601,10 +22603,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>6.484184102520089</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>353.1497390564832</v>
       </c>
     </row>
     <row r="3">
@@ -22674,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -22683,7 +22685,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>158.7936483093277</v>
+        <v>51.88353852249338</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22711,10 +22713,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>23.12472639190889</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22762,7 +22764,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>134.9699070214184</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22841,7 +22843,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>6.484184102520089</v>
       </c>
       <c r="Y5" t="n">
-        <v>133.1653198438734</v>
+        <v>43.05065602336595</v>
       </c>
     </row>
     <row r="6">
@@ -22869,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22914,19 +22916,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>110.1985053279415</v>
       </c>
       <c r="X6" t="n">
-        <v>68.21280200872468</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -23021,16 +23023,16 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>62.94345762782444</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23081,13 +23083,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>17.04064183363289</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23112,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23157,16 +23159,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>103.8439266410488</v>
+        <v>40.64873184581811</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -23179,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>70.43669735679153</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,16 +23235,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>62.47239946385344</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23264,19 +23266,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>302.684748716795</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>123.5255247684629</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>204.125573863409</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E14" t="n">
-        <v>118.1251420264638</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>158.6617845779559</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -23561,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="15">
@@ -23577,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>112.3609766217856</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23622,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>51.88353852249338</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>73.17353952185829</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>14.48822151587922</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23795,10 +23797,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23820,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23877,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>100.6379475717904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23893,22 +23895,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>35.62229039648858</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>85.3703250084281</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24023,13 +24025,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24133,19 +24135,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>153.4913596251558</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>42.31194499967866</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,10 +24217,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>320.1372802473909</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24263,16 +24265,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>384.7425708038065</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>126.9450269688243</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24373,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>134.9699070214184</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24452,7 +24454,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>118.7479089511131</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>13.07651982190356</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>84.69006343733145</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24655,19 +24657,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>89.29455036116082</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>309.7264826580404</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24737,16 +24739,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>4.874559219806315</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>181.0244246222284</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>321.521697865832</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24926,16 +24928,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>321.1053075955192</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>69.1625424231288</v>
+        <v>221.6646933560152</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -25214,10 +25216,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>95.68216206598615</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1762662001701</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>46.93180456038857</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -25409,7 +25411,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>180.5113448698093</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25552,16 +25554,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>136.5936122047742</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.744291425872433</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25634,19 +25636,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>79.18871965360364</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>102.2044137447352</v>
       </c>
     </row>
     <row r="42">
@@ -25795,10 +25797,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25834,7 +25836,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.744291425872433</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>102.3470916331338</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>307.0364677885923</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>100.6379475717904</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.2151194019981</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>104.4573550114323</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26071,22 +26073,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>477208.003035623</v>
+        <v>477208.0030356232</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>477208.0030356231</v>
+        <v>570920.9543609091</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>570920.9543609088</v>
+        <v>570920.9543609091</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>570920.9543609091</v>
+        <v>570920.9543609089</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>570920.9543609092</v>
+        <v>570920.9543609091</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>570920.9543609091</v>
+        <v>570920.9543609089</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477208.0030356232</v>
+        <v>570920.9543609091</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87467.56205859465</v>
+        <v>87467.56205859462</v>
       </c>
       <c r="C2" t="n">
-        <v>87467.56205859465</v>
+        <v>87467.56205859463</v>
       </c>
       <c r="D2" t="n">
-        <v>87467.56205859465</v>
+        <v>87467.56205859463</v>
       </c>
       <c r="E2" t="n">
-        <v>87467.56205859462</v>
+        <v>87467.56205859466</v>
       </c>
       <c r="F2" t="n">
-        <v>87467.56205859463</v>
+        <v>87467.56205859466</v>
       </c>
       <c r="G2" t="n">
-        <v>87467.56205859467</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="H2" t="n">
         <v>104642.4578023579</v>
       </c>
       <c r="I2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="J2" t="n">
         <v>104642.4578023578</v>
       </c>
       <c r="K2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="L2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="M2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="N2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="O2" t="n">
-        <v>104642.4578023579</v>
+        <v>104642.4578023578</v>
       </c>
       <c r="P2" t="n">
-        <v>87467.56205859462</v>
+        <v>104642.4578023578</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>36154.76904703023</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>31744.46367344755</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8402.128113625797</v>
+        <v>8402.128113625799</v>
       </c>
       <c r="C4" t="n">
         <v>8402.128113625799</v>
@@ -26424,13 +26426,13 @@
         <v>8402.128113625797</v>
       </c>
       <c r="E4" t="n">
-        <v>8402.128113625797</v>
+        <v>8402.1281136258</v>
       </c>
       <c r="F4" t="n">
         <v>8402.128113625799</v>
       </c>
       <c r="G4" t="n">
-        <v>8402.128113625799</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="H4" t="n">
         <v>10090.76744434242</v>
@@ -26457,7 +26459,7 @@
         <v>10090.76744434242</v>
       </c>
       <c r="P4" t="n">
-        <v>8402.128113625799</v>
+        <v>10090.76744434242</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="G5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-109032.6250720763</v>
       </c>
       <c r="C6" t="n">
-        <v>21716.54493615565</v>
+        <v>21716.54493615564</v>
       </c>
       <c r="D6" t="n">
-        <v>21716.54493615567</v>
+        <v>21716.54493615564</v>
       </c>
       <c r="E6" t="n">
-        <v>55344.14493615564</v>
+        <v>55344.14493615567</v>
       </c>
       <c r="F6" t="n">
-        <v>55344.14493615564</v>
+        <v>55344.14493615567</v>
       </c>
       <c r="G6" t="n">
-        <v>55344.14493615569</v>
+        <v>26655.45623248762</v>
       </c>
       <c r="H6" t="n">
-        <v>27219.50677317791</v>
+        <v>62810.22527951789</v>
       </c>
       <c r="I6" t="n">
-        <v>62810.22527951789</v>
+        <v>62810.22527951787</v>
       </c>
       <c r="J6" t="n">
-        <v>-39270.9086254479</v>
+        <v>-39270.90862544788</v>
       </c>
       <c r="K6" t="n">
-        <v>62810.22527951791</v>
+        <v>62810.22527951784</v>
       </c>
       <c r="L6" t="n">
-        <v>62810.22527951789</v>
+        <v>62810.22527951784</v>
       </c>
       <c r="M6" t="n">
-        <v>62810.22527951792</v>
+        <v>62810.22527951787</v>
       </c>
       <c r="N6" t="n">
-        <v>62810.22527951789</v>
+        <v>62810.22527951784</v>
       </c>
       <c r="O6" t="n">
-        <v>62810.22527951788</v>
+        <v>31065.76160607029</v>
       </c>
       <c r="P6" t="n">
-        <v>55344.14493615563</v>
+        <v>62810.22527951785</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="I4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="J4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="K4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="L4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="M4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="N4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="O4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="P4" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="I4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="J4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="K4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="L4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="M4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P4" t="n">
-        <v>390.1527797502169</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>76.66972081352215</v>
+      </c>
+      <c r="L2" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N2" t="n">
-        <v>117.6360295908603</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>216.4031014836408</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>381.3054633018259</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908604</v>
       </c>
       <c r="M5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P5" t="n">
-        <v>9.017664927120512</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>186.5450011173478</v>
+      </c>
+      <c r="O6" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M6" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N6" t="n">
-        <v>149.7704685226696</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>374.3890310734405</v>
+      </c>
+      <c r="O8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M8" t="n">
-        <v>76.66972081352203</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>390.1527797502169</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>149.7704685226695</v>
+        <v>186.5450011173478</v>
       </c>
       <c r="L9" t="n">
         <v>390.1527797502169</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L11" t="n">
+        <v>183.3837519720955</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M11" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N11" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O11" t="n">
-        <v>374.3890310734406</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>149.7704685226695</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M12" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>381.3054633018259</v>
       </c>
       <c r="P12" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>333.4227222961022</v>
       </c>
       <c r="L14" t="n">
         <v>390.1527797502169</v>
@@ -35659,7 +35661,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="O14" t="n">
-        <v>333.4227222961023</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>344.5309307071475</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>390.1527797502169</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>183.3837519720955</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>390.1527797502169</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>390.1527797502169</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="M18" t="n">
-        <v>179.6285688889625</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,16 +36360,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>522.0635703700256</v>
+        <v>203.250782519399</v>
       </c>
       <c r="L23" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36676,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430331</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M27" t="n">
-        <v>338.0047407346341</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="L30" t="n">
-        <v>306.2096305948397</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>474.8949538093261</v>
       </c>
       <c r="O33" t="n">
-        <v>179.3869557635729</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>276.3515302285465</v>
       </c>
       <c r="L36" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37549,22 +37551,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.2170912967376</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>147.5918456237788</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N41" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.017664927120396</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>390.1527797502169</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>374.3890310734405</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>390.1527797502169</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200734.0278504912</v>
+        <v>194276.8525816109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12617883.90382516</v>
+        <v>12617883.90382514</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10943609.97017262</v>
+        <v>10943609.97017261</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>209.7183039501509</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>43.7775672649076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>27.46801669177194</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.8600882386058</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>313.3687246458798</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>353.8766502980249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1037,10 +1037,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>100.902331253093</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>29.06736062834969</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1119,7 +1119,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>254.489886823085</v>
+      </c>
+      <c r="V8" t="n">
+        <v>346.3391791168841</v>
+      </c>
+      <c r="W8" t="n">
+        <v>379.9226978561831</v>
+      </c>
+      <c r="X8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C8" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>133.9282644538401</v>
-      </c>
-      <c r="T8" t="n">
-        <v>219.9844192126098</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>379.8866644877579</v>
+        <v>143.2003641082727</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>115.7281862028015</v>
@@ -1223,16 +1223,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>205.5417363914051</v>
       </c>
       <c r="W9" t="n">
-        <v>170.4521047352164</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>98.94574135710913</v>
+        <v>119.8788393675294</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1311,7 +1311,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>81.98750476861649</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V12" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>42.05236239524908</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>181.0011763807252</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D14" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>294.3984194316603</v>
       </c>
       <c r="F14" t="n">
-        <v>258.1583233478934</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
@@ -1706,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V15" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>13.5731556997348</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>91.87217352086085</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>388.2474135039324</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>327.896112749442</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.968488929531893</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>388.2474135039324</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>100.6686005588248</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>76.13124330526705</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2256,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.87064043703845</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>203.4550285473502</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>11.89439304893054</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2493,10 +2493,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>136.1769805884549</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>4.355011645742682</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>22.33746978197993</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2620,10 +2620,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>383.5604440308334</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.25432609134847</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>146.6658731577526</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>90.6928079498296</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>337.3832930011902</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2967,10 +2967,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>98.94574135710867</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>44.26579862376497</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>249.8214450936306</v>
       </c>
       <c r="F32" t="n">
-        <v>95.71480033033009</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>124.9866542506887</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -3204,7 +3204,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>188.5321199722571</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>382.2717429457225</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>129.1752199258839</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>69.89572509772586</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>73.97854195327571</v>
+        <v>109.1281725350103</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>21.30608602554484</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>82.85798684944078</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>261.17478890507</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>294.7228925766556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>35.73692418651404</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>117.637327579476</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>375.3416314550221</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>61.12053215227972</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>230.4591671048103</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.21222238001735</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="C2" t="n">
-        <v>31.21222238001735</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E2" t="n">
         <v>31.21222238001735</v>
@@ -4333,25 +4333,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>361.3007174531585</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L2" t="n">
-        <v>747.5519694058733</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M2" t="n">
-        <v>1133.803221358588</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N2" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O2" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P2" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q2" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R2" t="n">
         <v>1560.611119000868</v>
@@ -4360,22 +4360,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U2" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V2" t="n">
-        <v>853.2860050783079</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W2" t="n">
-        <v>469.5257042134764</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X2" t="n">
-        <v>75.43198729406544</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.21222238001735</v>
+        <v>1425.330043794968</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>710.0430642665517</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0479930154975</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D3" t="n">
-        <v>459.1508352348899</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G3" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
@@ -4418,13 +4418,13 @@
         <v>31.21222238001735</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4634743327321</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="N3" t="n">
-        <v>417.4634743327321</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="O3" t="n">
-        <v>803.7147262854468</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P3" t="n">
         <v>1181.207134954254</v>
@@ -4436,25 +4436,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U3" t="n">
-        <v>1560.611119000868</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>1399.307206663087</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W3" t="n">
-        <v>1186.074038399415</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X3" t="n">
-        <v>1009.748056538308</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.3460969021384</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>766.5997460790038</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="C4" t="n">
-        <v>766.5997460790038</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="D4" t="n">
-        <v>766.5997460790038</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="E4" t="n">
-        <v>605.6889309473233</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F4" t="n">
-        <v>464.4161145446913</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702346</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756913</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001747</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522802</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875266</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4524,16 +4524,16 @@
         <v>766.5997460790038</v>
       </c>
       <c r="V4" t="n">
-        <v>766.5997460790038</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W4" t="n">
-        <v>766.5997460790038</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="X4" t="n">
-        <v>766.5997460790038</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="Y4" t="n">
-        <v>766.5997460790038</v>
+        <v>31.21222238001734</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.21222238001735</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="C5" t="n">
         <v>31.21222238001735</v>
@@ -4573,22 +4573,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="L5" t="n">
-        <v>401.8573631427234</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M5" t="n">
-        <v>401.8573631427234</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N5" t="n">
-        <v>788.1086150954382</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O5" t="n">
-        <v>1174.359867048153</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P5" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q5" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R5" t="n">
         <v>1560.611119000868</v>
@@ -4597,22 +4597,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000868</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V5" t="n">
-        <v>1560.611119000868</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W5" t="n">
-        <v>1176.850818136036</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="X5" t="n">
-        <v>782.7571012166252</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="Y5" t="n">
-        <v>425.3059392994284</v>
+        <v>347.7462876788858</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480.5903684413843</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C6" t="n">
-        <v>346.59529719033</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D6" t="n">
-        <v>229.6981394097224</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="E6" t="n">
-        <v>229.6981394097224</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="F6" t="n">
-        <v>229.6981394097224</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="G6" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H6" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
@@ -4649,49 +4649,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M6" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N6" t="n">
-        <v>408.7046310488249</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O6" t="n">
-        <v>794.9558830015396</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P6" t="n">
-        <v>1181.207134954254</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q6" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R6" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S6" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T6" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U6" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V6" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W6" t="n">
-        <v>780.295360713141</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X6" t="n">
-        <v>780.295360713141</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y6" t="n">
-        <v>620.893401076971</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.21222238001735</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="C7" t="n">
-        <v>31.21222238001735</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="D7" t="n">
-        <v>31.21222238001735</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="E7" t="n">
-        <v>31.21222238001735</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="F7" t="n">
-        <v>31.21222238001735</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="G7" t="n">
         <v>31.21222238001735</v>
@@ -4749,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S7" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T7" t="n">
-        <v>1049.39789353288</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U7" t="n">
-        <v>766.5997460790038</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V7" t="n">
-        <v>492.7140010185257</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W7" t="n">
-        <v>213.6443365274001</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="X7" t="n">
-        <v>31.21222238001735</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.21222238001735</v>
+        <v>60.5731927116837</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C8" t="n">
         <v>31.21222238001735</v>
@@ -4807,49 +4807,49 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K8" t="n">
-        <v>31.21222238001735</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L8" t="n">
-        <v>31.21222238001735</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M8" t="n">
-        <v>417.4634743327321</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N8" t="n">
-        <v>788.1086150954382</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O8" t="n">
-        <v>1174.359867048153</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P8" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R8" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S8" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T8" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U8" t="n">
-        <v>1203.123559741827</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V8" t="n">
-        <v>1203.123559741827</v>
+        <v>953.7130725968584</v>
       </c>
       <c r="W8" t="n">
-        <v>1203.123559741827</v>
+        <v>569.952771732027</v>
       </c>
       <c r="X8" t="n">
-        <v>1203.123559741827</v>
+        <v>175.859054812616</v>
       </c>
       <c r="Y8" t="n">
-        <v>819.3996562188394</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>710.0430642665517</v>
+        <v>339.3494091325809</v>
       </c>
       <c r="C9" t="n">
-        <v>576.0479930154975</v>
+        <v>339.3494091325809</v>
       </c>
       <c r="D9" t="n">
-        <v>459.1508352348899</v>
+        <v>222.4522513519733</v>
       </c>
       <c r="E9" t="n">
-        <v>338.6580192272179</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="F9" t="n">
-        <v>229.6981394097224</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G9" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
@@ -4886,25 +4886,25 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>408.7046310488249</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>794.9558830015396</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M9" t="n">
-        <v>1181.207134954254</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N9" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O9" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P9" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
@@ -4919,16 +4919,16 @@
         <v>1095.928434440403</v>
       </c>
       <c r="V9" t="n">
-        <v>882.216907433437</v>
+        <v>888.3105188935293</v>
       </c>
       <c r="W9" t="n">
-        <v>710.0430642665517</v>
+        <v>675.0773506298581</v>
       </c>
       <c r="X9" t="n">
-        <v>710.0430642665517</v>
+        <v>498.7513687687509</v>
       </c>
       <c r="Y9" t="n">
-        <v>710.0430642665517</v>
+        <v>339.3494091325809</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1049.39789353288</v>
+        <v>954.1963910820748</v>
       </c>
       <c r="C10" t="n">
-        <v>949.4527002428704</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="D10" t="n">
-        <v>789.9580555657803</v>
+        <v>673.6120096701065</v>
       </c>
       <c r="E10" t="n">
-        <v>629.0472404340999</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F10" t="n">
-        <v>464.4161145446911</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G10" t="n">
-        <v>297.1657234702345</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4989,25 +4989,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S10" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U10" t="n">
-        <v>1049.39789353288</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="V10" t="n">
-        <v>1049.39789353288</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="W10" t="n">
-        <v>1049.39789353288</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="X10" t="n">
-        <v>1049.39789353288</v>
+        <v>954.1963910820748</v>
       </c>
       <c r="Y10" t="n">
-        <v>1049.39789353288</v>
+        <v>954.1963910820748</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1213.49337313825</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="C11" t="n">
-        <v>1213.49337313825</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="D11" t="n">
-        <v>1213.49337313825</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="E11" t="n">
-        <v>819.3996562188394</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="F11" t="n">
-        <v>425.3059392994284</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G11" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H11" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I11" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J11" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K11" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L11" t="n">
-        <v>853.1988602528609</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M11" t="n">
-        <v>853.1988602528609</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N11" t="n">
-        <v>853.1988602528609</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O11" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P11" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R11" t="n">
         <v>1560.611119000868</v>
@@ -5071,22 +5071,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T11" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U11" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V11" t="n">
-        <v>1560.611119000868</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="W11" t="n">
-        <v>1560.611119000868</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="X11" t="n">
-        <v>1560.611119000868</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="Y11" t="n">
-        <v>1560.611119000868</v>
+        <v>905.7514189017662</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C12" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D12" t="n">
-        <v>459.1508352348899</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="E12" t="n">
-        <v>338.6580192272179</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="F12" t="n">
-        <v>229.6981394097224</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="G12" t="n">
-        <v>122.7080267240611</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="H12" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I12" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J12" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K12" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L12" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4634743327321</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N12" t="n">
-        <v>417.4634743327321</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O12" t="n">
-        <v>794.9558830015396</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P12" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q12" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R12" t="n">
         <v>1560.611119000868</v>
@@ -5150,22 +5150,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U12" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V12" t="n">
-        <v>1399.307206663087</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W12" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X12" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.6428572028094</v>
+        <v>693.6817564592561</v>
       </c>
       <c r="C13" t="n">
-        <v>339.6428572028094</v>
+        <v>522.5883840209726</v>
       </c>
       <c r="D13" t="n">
-        <v>339.6428572028094</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="E13" t="n">
-        <v>339.6428572028094</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F13" t="n">
-        <v>339.6428572028094</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G13" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H13" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I13" t="n">
         <v>31.21222238001735</v>
@@ -5223,28 +5223,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S13" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T13" t="n">
-        <v>1134.67061185748</v>
+        <v>1106.117161464536</v>
       </c>
       <c r="U13" t="n">
-        <v>851.872464403604</v>
+        <v>1106.117161464536</v>
       </c>
       <c r="V13" t="n">
-        <v>577.986719343126</v>
+        <v>1106.117161464536</v>
       </c>
       <c r="W13" t="n">
-        <v>577.986719343126</v>
+        <v>1106.117161464536</v>
       </c>
       <c r="X13" t="n">
-        <v>339.6428572028094</v>
+        <v>1106.117161464536</v>
       </c>
       <c r="Y13" t="n">
-        <v>339.6428572028094</v>
+        <v>881.3814628533005</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.517402081457</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="C14" t="n">
-        <v>1166.517402081457</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="D14" t="n">
-        <v>772.4236851620456</v>
+        <v>414.9361259030052</v>
       </c>
       <c r="E14" t="n">
-        <v>772.4236851620456</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="F14" t="n">
-        <v>511.6577019823552</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G14" t="n">
         <v>117.5639850629442</v>
@@ -5278,25 +5278,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J14" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K14" t="n">
-        <v>361.3007174531585</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L14" t="n">
-        <v>747.5519694058733</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M14" t="n">
-        <v>1133.803221358588</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N14" t="n">
-        <v>1520.054473311303</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O14" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P14" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q14" t="n">
         <v>1520.054473311303</v>
@@ -5305,25 +5305,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S14" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T14" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U14" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V14" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W14" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X14" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y14" t="n">
-        <v>1166.517402081457</v>
+        <v>1203.123559741827</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>710.0430642665517</v>
+        <v>568.8016568791199</v>
       </c>
       <c r="C15" t="n">
-        <v>576.0479930154975</v>
+        <v>434.8065856280656</v>
       </c>
       <c r="D15" t="n">
-        <v>459.1508352348899</v>
+        <v>317.909427847458</v>
       </c>
       <c r="E15" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F15" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G15" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H15" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I15" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J15" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K15" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>372.2978437800934</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M15" t="n">
-        <v>758.5490957328082</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N15" t="n">
-        <v>1144.800347685523</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O15" t="n">
-        <v>1144.800347685523</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P15" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q15" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R15" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S15" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T15" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U15" t="n">
-        <v>1560.611119000868</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V15" t="n">
-        <v>1399.307206663087</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W15" t="n">
-        <v>1186.074038399415</v>
+        <v>868.5066491508766</v>
       </c>
       <c r="X15" t="n">
-        <v>1009.748056538308</v>
+        <v>868.5066491508766</v>
       </c>
       <c r="Y15" t="n">
-        <v>850.3460969021384</v>
+        <v>709.1046895147066</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.21222238001735</v>
+        <v>449.5543386747034</v>
       </c>
       <c r="C16" t="n">
-        <v>31.21222238001735</v>
+        <v>449.5543386747034</v>
       </c>
       <c r="D16" t="n">
-        <v>31.21222238001735</v>
+        <v>449.5543386747034</v>
       </c>
       <c r="E16" t="n">
-        <v>31.21222238001735</v>
+        <v>288.6435235430229</v>
       </c>
       <c r="F16" t="n">
-        <v>31.21222238001735</v>
+        <v>124.0123976536142</v>
       </c>
       <c r="G16" t="n">
         <v>31.21222238001735</v>
@@ -5460,28 +5460,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S16" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T16" t="n">
-        <v>1049.39789353288</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U16" t="n">
-        <v>766.5997460790038</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V16" t="n">
-        <v>492.7140010185257</v>
+        <v>1100.3336058203</v>
       </c>
       <c r="W16" t="n">
-        <v>213.6443365274001</v>
+        <v>1100.3336058203</v>
       </c>
       <c r="X16" t="n">
-        <v>31.21222238001735</v>
+        <v>861.9897436799831</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.21222238001735</v>
+        <v>637.2540450687478</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815612</v>
+        <v>1208.343907855424</v>
       </c>
       <c r="C17" t="n">
-        <v>1285.863997266186</v>
+        <v>1208.343907855424</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962252</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5545,22 +5545,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1208.343907855424</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1208.343907855424</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>508.1659581184963</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N18" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O18" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P18" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
         <v>2058.694762117472</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960203</v>
+        <v>330.3801982861283</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960203</v>
+        <v>330.3801982861283</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960203</v>
+        <v>330.3801982861283</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960203</v>
+        <v>330.3801982861283</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960203</v>
+        <v>330.3801982861283</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>163.1298072116718</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5703,22 +5703,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T19" t="n">
-        <v>1059.950756782464</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U19" t="n">
-        <v>777.1526093285881</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V19" t="n">
-        <v>503.2668642681101</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W19" t="n">
-        <v>224.1971997769844</v>
+        <v>742.815603291408</v>
       </c>
       <c r="X19" t="n">
-        <v>41.76508562960203</v>
+        <v>742.815603291408</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960203</v>
+        <v>518.0799046801727</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.033101815612</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C20" t="n">
-        <v>1285.863997266186</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.863997266186</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N20" t="n">
-        <v>1592.293889628578</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1986.568826370178</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1764.362342317037</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1507.301850576547</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1157.464295913028</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O21" t="n">
         <v>1541.851827451147</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>596.8607653001708</v>
+        <v>770.9523081651339</v>
       </c>
       <c r="C22" t="n">
-        <v>596.8607653001708</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D22" t="n">
-        <v>596.8607653001708</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E22" t="n">
-        <v>596.8607653001708</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F22" t="n">
-        <v>432.229639410762</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G22" t="n">
-        <v>264.9792483363054</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>115.3717931417621</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5952,10 +5952,10 @@
         <v>1009.29617030545</v>
       </c>
       <c r="X22" t="n">
-        <v>1009.29617030545</v>
+        <v>770.9523081651339</v>
       </c>
       <c r="Y22" t="n">
-        <v>784.5604716942152</v>
+        <v>770.9523081651339</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1265.081890330439</v>
+        <v>867.259427582854</v>
       </c>
       <c r="C23" t="n">
-        <v>854.9572996437093</v>
+        <v>867.259427582854</v>
       </c>
       <c r="D23" t="n">
-        <v>450.4933697367699</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E23" t="n">
-        <v>450.4933697367699</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>497.1688317915614</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>497.1688317915616</v>
+      </c>
+      <c r="N23" t="n">
         <v>1014.011766457887</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>1530.854701124212</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2047.697635790537</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2047.697635790537</v>
       </c>
       <c r="P23" t="n">
         <v>2047.697635790537</v>
@@ -6016,25 +6016,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X23" t="n">
-        <v>2076.239743046839</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y23" t="n">
-        <v>1675.303069994929</v>
+        <v>1072.769557428662</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960204</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.450954962252</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N24" t="n">
-        <v>1592.293889628578</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1156.690402913334</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="C25" t="n">
-        <v>1156.690402913334</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D25" t="n">
-        <v>1156.690402913334</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E25" t="n">
-        <v>1156.690402913334</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F25" t="n">
-        <v>992.0592770239252</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G25" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2002.981563155501</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1816.589795035411</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T25" t="n">
-        <v>1577.041056012114</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U25" t="n">
-        <v>1294.242908558238</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V25" t="n">
-        <v>1156.690402913334</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="W25" t="n">
-        <v>1156.690402913334</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="X25" t="n">
-        <v>1156.690402913334</v>
+        <v>1106.487467407518</v>
       </c>
       <c r="Y25" t="n">
-        <v>1156.690402913334</v>
+        <v>881.7517687962822</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>352.673583001884</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C26" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D26" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E26" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F26" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G26" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>812.7934917636815</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M26" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N26" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6253,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.766722221061</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U26" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V26" t="n">
-        <v>1123.868675817052</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W26" t="n">
-        <v>740.1083749522209</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X26" t="n">
-        <v>352.673583001884</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y26" t="n">
-        <v>352.673583001884</v>
+        <v>474.4527771062106</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>675.164428100838</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>1192.007362767163</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M27" t="n">
-        <v>1192.007362767163</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N27" t="n">
-        <v>1192.007362767163</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O27" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6338,19 +6338,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.3531027449755</v>
+        <v>127.8805665299541</v>
       </c>
       <c r="C28" t="n">
-        <v>201.259730306692</v>
+        <v>127.8805665299541</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76508562960203</v>
+        <v>127.8805665299541</v>
       </c>
       <c r="E28" t="n">
-        <v>41.76508562960203</v>
+        <v>127.8805665299541</v>
       </c>
       <c r="F28" t="n">
-        <v>41.76508562960203</v>
+        <v>127.8805665299541</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960203</v>
+        <v>127.8805665299541</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960203</v>
+        <v>127.8805665299541</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6408,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V28" t="n">
-        <v>1212.005518865373</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W28" t="n">
-        <v>932.9358543742478</v>
+        <v>778.6598336755503</v>
       </c>
       <c r="X28" t="n">
-        <v>784.7885077502552</v>
+        <v>540.3159715352338</v>
       </c>
       <c r="Y28" t="n">
-        <v>560.0528091390199</v>
+        <v>315.5802729239985</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>543.4985732353517</v>
+        <v>1208.050632634561</v>
       </c>
       <c r="C29" t="n">
-        <v>133.3739825486218</v>
+        <v>1208.050632634561</v>
       </c>
       <c r="D29" t="n">
-        <v>41.76508562960203</v>
+        <v>803.5867027276217</v>
       </c>
       <c r="E29" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L29" t="n">
-        <v>497.1688317915614</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N29" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6493,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V29" t="n">
-        <v>1738.416726816582</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W29" t="n">
-        <v>1354.656425951751</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X29" t="n">
-        <v>1354.656425951751</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.7197528998412</v>
+        <v>1208.050632634561</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>187.8810127971428</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L30" t="n">
-        <v>187.8810127971428</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M30" t="n">
-        <v>704.723947463468</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N30" t="n">
-        <v>1221.566882129793</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O30" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P30" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>960.0055634924552</v>
+        <v>544.7399750317509</v>
       </c>
       <c r="C31" t="n">
-        <v>960.0055634924552</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6654,19 +6654,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U31" t="n">
-        <v>960.0055634924552</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V31" t="n">
-        <v>960.0055634924552</v>
+        <v>732.4396814257952</v>
       </c>
       <c r="W31" t="n">
-        <v>960.0055634924552</v>
+        <v>732.4396814257952</v>
       </c>
       <c r="X31" t="n">
-        <v>960.0055634924552</v>
+        <v>732.4396814257952</v>
       </c>
       <c r="Y31" t="n">
-        <v>960.0055634924552</v>
+        <v>732.4396814257952</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>944.4352462872616</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C32" t="n">
-        <v>944.4352462872616</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D32" t="n">
-        <v>944.4352462872616</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="E32" t="n">
-        <v>944.4352462872616</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F32" t="n">
-        <v>847.7536297919787</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G32" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960203</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L32" t="n">
-        <v>41.76508562960203</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M32" t="n">
-        <v>176.0078249962694</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N32" t="n">
-        <v>692.8507596625946</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O32" t="n">
         <v>1209.69369432892</v>
@@ -6727,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>1738.416726816582</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W32" t="n">
-        <v>1354.656425951751</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X32" t="n">
-        <v>1354.656425951751</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y32" t="n">
-        <v>1354.656425951751</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
@@ -6785,19 +6785,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="L33" t="n">
-        <v>751.4208778585604</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.263812524885</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N33" t="n">
-        <v>1738.409816796118</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O33" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6812,19 +6812,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U33" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1131.098935930739</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C34" t="n">
-        <v>960.0055634924552</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D34" t="n">
-        <v>800.5109188153651</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E34" t="n">
-        <v>639.6001036836846</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F34" t="n">
-        <v>474.9689777942758</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198192</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H34" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6882,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S34" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U34" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V34" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W34" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X34" t="n">
-        <v>1543.534340936018</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y34" t="n">
-        <v>1318.798642324783</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1046.790091043733</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C35" t="n">
-        <v>636.6655003570032</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D35" t="n">
-        <v>232.2015704500637</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>497.1688317915614</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N35" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O35" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6967,22 +6967,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U35" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V35" t="n">
-        <v>1831.193789739612</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W35" t="n">
-        <v>1447.433488874781</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X35" t="n">
-        <v>1046.790091043733</v>
+        <v>873.0166773404039</v>
       </c>
       <c r="Y35" t="n">
-        <v>1046.790091043733</v>
+        <v>873.0166773404039</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1659581184963</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L36" t="n">
-        <v>508.1659581184963</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.008892784821</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N36" t="n">
-        <v>1541.851827451147</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O36" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P36" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q36" t="n">
         <v>2058.694762117472</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>884.8428321846941</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>713.7494597464106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>554.2548150693206</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>393.34399993764</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>228.7128740482313</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7119,28 +7119,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S37" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V37" t="n">
-        <v>1297.278237189974</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W37" t="n">
-        <v>1297.278237189974</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X37" t="n">
-        <v>1297.278237189974</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y37" t="n">
-        <v>1072.542538578738</v>
+        <v>172.2451057567575</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>451.8896763163319</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="C38" t="n">
-        <v>41.76508562960203</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M38" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N38" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O38" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
         <v>1726.536628995245</v>
@@ -7207,19 +7207,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>2013.528481527298</v>
+        <v>1978.023804172011</v>
       </c>
       <c r="V38" t="n">
-        <v>1663.690926863779</v>
+        <v>1628.186249508492</v>
       </c>
       <c r="W38" t="n">
-        <v>1663.690926863779</v>
+        <v>1244.42594864366</v>
       </c>
       <c r="X38" t="n">
-        <v>1263.047529032731</v>
+        <v>1244.42594864366</v>
       </c>
       <c r="Y38" t="n">
-        <v>862.1108559808214</v>
+        <v>843.4892755917504</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>537.7254774811263</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L39" t="n">
-        <v>537.7254774811263</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.568412147451</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N39" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P39" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q39" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>202.6759007612825</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U40" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V40" t="n">
-        <v>503.2668642681101</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W40" t="n">
-        <v>224.1971997769844</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X40" t="n">
-        <v>224.1971997769844</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>41.76508562960203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C41" t="n">
-        <v>41.76508562960203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D41" t="n">
-        <v>41.76508562960203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="E41" t="n">
-        <v>41.76508562960203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960203</v>
+        <v>702.8382637707402</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>537.7254774811263</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.568412147451</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>1571.411346813777</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N41" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O41" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P41" t="n">
         <v>2088.254281480102</v>
@@ -7441,22 +7441,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U41" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V41" t="n">
-        <v>1123.868675817052</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W41" t="n">
-        <v>740.1083749522209</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X41" t="n">
-        <v>339.4649771211734</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y41" t="n">
-        <v>41.76508562960203</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959272</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962252</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O42" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P42" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.76508562960203</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C43" t="n">
-        <v>41.76508562960203</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960203</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960203</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7596,25 +7596,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T43" t="n">
-        <v>1331.615243227154</v>
+        <v>1348.674310911661</v>
       </c>
       <c r="U43" t="n">
-        <v>1048.817095773278</v>
+        <v>1348.674310911661</v>
       </c>
       <c r="V43" t="n">
-        <v>774.9313507128002</v>
+        <v>1348.674310911661</v>
       </c>
       <c r="W43" t="n">
-        <v>495.8616862216745</v>
+        <v>1348.674310911661</v>
       </c>
       <c r="X43" t="n">
-        <v>257.5178240813579</v>
+        <v>1110.330448771344</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.76508562960203</v>
+        <v>885.5947501601092</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>843.4892755917504</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C44" t="n">
-        <v>843.4892755917504</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D44" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E44" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F44" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G44" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
         <v>41.76508562960205</v>
@@ -7651,19 +7651,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.568412147452</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M44" t="n">
         <v>1054.568412147452</v>
       </c>
       <c r="N44" t="n">
-        <v>1054.568412147452</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O44" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
         <v>2088.254281480102</v>
@@ -7675,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1834.147622860591</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1577.087131120101</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V44" t="n">
-        <v>1227.249576456582</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W44" t="n">
-        <v>843.4892755917504</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X44" t="n">
-        <v>843.4892755917504</v>
+        <v>731.806544067563</v>
       </c>
       <c r="Y44" t="n">
-        <v>843.4892755917504</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
         <v>469.7036984844747</v>
@@ -7718,37 +7718,37 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.5136770093618</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L45" t="n">
-        <v>1192.007362767164</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M45" t="n">
-        <v>1192.007362767164</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.007362767164</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P45" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7766,7 +7766,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>588.5395825927103</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>588.5395825927103</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>429.0449379156203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>268.1341227839398</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>103.5029968945311</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
         <v>41.76508562960205</v>
@@ -7830,28 +7830,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T46" t="n">
-        <v>1145.223475107064</v>
+        <v>1066.712458326155</v>
       </c>
       <c r="U46" t="n">
-        <v>862.4253276531883</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="V46" t="n">
-        <v>588.5395825927103</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W46" t="n">
-        <v>588.5395825927103</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X46" t="n">
-        <v>588.5395825927103</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y46" t="n">
-        <v>588.5395825927103</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>165.8061104867393</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
         <v>485.6381778130617</v>
@@ -7990,7 +7990,7 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0650705068362</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -8002,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>447.7170634886343</v>
+        <v>438.8697470402433</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -8075,7 +8075,7 @@
         <v>447.9042587502169</v>
       </c>
       <c r="P3" t="n">
-        <v>435.5650983046296</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8221,13 +8221,13 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>213.1214276537053</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O5" t="n">
         <v>483.342555376</v>
@@ -8236,10 +8236,10 @@
         <v>483.8021430311011</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>239.7383945110978</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O6" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>236.3211873938012</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>102.3078893841658</v>
       </c>
       <c r="N8" t="n">
-        <v>467.3013218300598</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>242.3707839019632</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
         <v>446.2673035610659</v>
@@ -8543,7 +8543,7 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
@@ -8552,10 +8552,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>278.8691500349403</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O11" t="n">
-        <v>483.342555376</v>
+        <v>102.2074405529035</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L12" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O12" t="n">
-        <v>439.0569423018259</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>422.5591119693194</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
-        <v>400.6454545179966</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M15" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P15" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>527.2265162238735</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>535.1658287548267</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>63.89502594283636</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>395.7562197346342</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>292.3871721926162</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>553.2940084590249</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>558.7215717793174</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>422.1224761037308</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9877,25 +9877,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N26" t="n">
-        <v>296.1630732760184</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9956,28 +9956,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>500.8626362276485</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>425.4271248393446</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,22 +10117,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>555.489182064824</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>203.417628408394</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>532.4592375477437</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
-        <v>228.8889510900428</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10433,16 +10433,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>579.6278541084429</v>
+        <v>532.4592375477437</v>
       </c>
       <c r="N33" t="n">
-        <v>528.0883472030761</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>555.489182064824</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10667,25 +10667,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>332.1773130131619</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>498.2302468367834</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10831,16 +10831,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266448</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>229.2480899138815</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>362.0354133794548</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>498.2302468367834</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>590.1064824525346</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O41" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
@@ -11147,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637754</v>
+        <v>528.0883472030763</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>171.9933802602894</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>333.3534809699548</v>
       </c>
       <c r="L44" t="n">
-        <v>339.7024893595824</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11378,10 +11378,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>562.8045877599699</v>
+        <v>531.0094776201754</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,7 +11390,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
         <v>576.3232053728293</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>196.4006639176937</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>353.1497390564832</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22631,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>88.26016951102955</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,16 +22676,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22713,19 +22713,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>23.12472639190889</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22764,16 +22764,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>41.88054861921404</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>92.6546201339828</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22837,22 +22837,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.05065602336595</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>90.82997292779362</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22925,10 +22925,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>110.1985053279415</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22956,7 +22956,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>136.5105265353623</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.04064183363289</v>
+        <v>253.7269422131181</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23111,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23159,16 +23159,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.032675345491413</v>
       </c>
       <c r="W9" t="n">
-        <v>40.64873184581811</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>70.43669735679153</v>
+        <v>49.50359934637123</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,13 +23229,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23244,7 +23244,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.47239946385344</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E11" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>297.9351930875666</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>54.94950220363005</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,13 +23390,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>123.5255247684629</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>56.15207525233973</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D14" t="n">
         <v>10.26651085765315</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>115.7983938966119</v>
       </c>
       <c r="F14" t="n">
-        <v>158.6617845779559</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>197.5276808812997</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23661,13 +23661,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>73.70571364285115</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>17.77593127593013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>72.52317785842808</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23785,10 +23785,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23797,7 +23797,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>143.142891713066</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>55.3526305130049</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>17.77593127593013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>33.25966389501531</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>93.25119540863361</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>42.31194499967866</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>202.6639393204944</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24271,7 +24271,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>384.7425708038065</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>134.9699070214184</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>231.6054118731708</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>383.7814980858647</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24460,7 +24460,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>13.07651982190356</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24621,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>29.92825934536863</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>89.29455036116082</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>309.7264826580404</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>72.81352032708207</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -24733,16 +24733,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>181.0244246222284</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>226.8810889861083</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -24925,19 +24925,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>160.3753682346416</v>
       </c>
       <c r="F32" t="n">
-        <v>321.1053075955192</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>32.91304397963036</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25140,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>221.6646933560152</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25207,19 +25207,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>14.36522090701447</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>56.6474894042201</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>95.68216206598615</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25408,10 +25408,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>180.5113448698093</v>
+        <v>145.3617142880747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>136.5936122047742</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>193.4209809967736</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>143.4662123610261</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>102.2044137447352</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25836,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>201.4163274465509</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.893130557884632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>102.3470916331338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>21.58567486636866</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>104.4573550114323</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>6.694084528254592</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477208.0030356232</v>
+        <v>477208.0030356231</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477208.0030356231</v>
+        <v>477208.0030356232</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>570920.9543609091</v>
+        <v>570920.9543609089</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>570920.9543609089</v>
+        <v>570920.9543609091</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>570920.9543609091</v>
+        <v>570920.9543609089</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>87467.56205859463</v>
+      </c>
+      <c r="C2" t="n">
         <v>87467.56205859462</v>
       </c>
-      <c r="C2" t="n">
-        <v>87467.56205859463</v>
-      </c>
       <c r="D2" t="n">
-        <v>87467.56205859463</v>
+        <v>87467.56205859465</v>
       </c>
       <c r="E2" t="n">
-        <v>87467.56205859466</v>
+        <v>87467.56205859465</v>
       </c>
       <c r="F2" t="n">
         <v>87467.56205859466</v>
       </c>
       <c r="G2" t="n">
+        <v>104642.4578023579</v>
+      </c>
+      <c r="H2" t="n">
         <v>104642.4578023578</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>104642.4578023579</v>
       </c>
-      <c r="I2" t="n">
-        <v>104642.4578023578</v>
-      </c>
       <c r="J2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="K2" t="n">
         <v>104642.4578023578</v>
@@ -26346,13 +26346,13 @@
         <v>104642.4578023578</v>
       </c>
       <c r="M2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="N2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="O2" t="n">
-        <v>104642.4578023578</v>
+        <v>104642.4578023579</v>
       </c>
       <c r="P2" t="n">
         <v>104642.4578023578</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36154.76904703023</v>
+        <v>36154.76904703026</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31744.46367344755</v>
+        <v>31744.46367344758</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>8402.128113625799</v>
       </c>
       <c r="C4" t="n">
+        <v>8402.1281136258</v>
+      </c>
+      <c r="D4" t="n">
         <v>8402.128113625799</v>
       </c>
-      <c r="D4" t="n">
-        <v>8402.128113625797</v>
-      </c>
       <c r="E4" t="n">
+        <v>8402.128113625799</v>
+      </c>
+      <c r="F4" t="n">
         <v>8402.1281136258</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8402.128113625799</v>
       </c>
       <c r="G4" t="n">
         <v>10090.76744434242</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109032.6250720763</v>
+        <v>-109866.2893473227</v>
       </c>
       <c r="C6" t="n">
-        <v>21716.54493615564</v>
+        <v>20882.88066090919</v>
       </c>
       <c r="D6" t="n">
-        <v>21716.54493615564</v>
+        <v>20882.88066090922</v>
       </c>
       <c r="E6" t="n">
-        <v>55344.14493615567</v>
+        <v>54510.48066090922</v>
       </c>
       <c r="F6" t="n">
-        <v>55344.14493615567</v>
+        <v>54510.48066090923</v>
       </c>
       <c r="G6" t="n">
-        <v>26655.45623248762</v>
+        <v>25977.92737309359</v>
       </c>
       <c r="H6" t="n">
-        <v>62810.22527951789</v>
+        <v>62132.69642012381</v>
       </c>
       <c r="I6" t="n">
-        <v>62810.22527951787</v>
+        <v>62132.69642012385</v>
       </c>
       <c r="J6" t="n">
-        <v>-39270.90862544788</v>
+        <v>-39948.43748484189</v>
       </c>
       <c r="K6" t="n">
-        <v>62810.22527951784</v>
+        <v>62132.69642012382</v>
       </c>
       <c r="L6" t="n">
-        <v>62810.22527951784</v>
+        <v>62132.69642012382</v>
       </c>
       <c r="M6" t="n">
-        <v>62810.22527951787</v>
+        <v>62132.69642012384</v>
       </c>
       <c r="N6" t="n">
-        <v>62810.22527951784</v>
+        <v>62132.69642012388</v>
       </c>
       <c r="O6" t="n">
-        <v>31065.76160607029</v>
+        <v>30388.23274667626</v>
       </c>
       <c r="P6" t="n">
-        <v>62810.22527951785</v>
+        <v>62132.69642012381</v>
       </c>
     </row>
   </sheetData>
@@ -26804,31 +26804,31 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
         <v>522.0635703700256</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>76.66972081352215</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L2" t="n">
         <v>390.1527797502169</v>
@@ -34710,7 +34710,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N2" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>390.1527797502169</v>
+        <v>381.3054633018259</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P3" t="n">
-        <v>381.3054633018259</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34941,13 +34941,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>117.6360295908604</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>390.1527797502169</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O5" t="n">
         <v>390.1527797502169</v>
@@ -34956,10 +34956,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>186.5450011173478</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M8" t="n">
+        <v>9.017664927120396</v>
+      </c>
+      <c r="N8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N8" t="n">
-        <v>374.3890310734405</v>
-      </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5450011173478</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
         <v>390.1527797502169</v>
@@ -35263,7 +35263,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L11" t="n">
-        <v>183.3837519720955</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O11" t="n">
+        <v>9.017664927120396</v>
+      </c>
+      <c r="P11" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L12" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O12" t="n">
-        <v>381.3054633018259</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O14" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N14" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
-        <v>344.5309307071475</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>471.1119924130245</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>10.70163254908636</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>203.250782519399</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O24" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N26" t="n">
-        <v>203.2507825193991</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36676,28 +36676,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>445.0368534430331</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>367.8628411009272</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>460.0037840019792</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>147.5918456237786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>474.8949538093263</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M32" t="n">
-        <v>135.5987266329973</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700254</v>
+        <v>474.8949538093263</v>
       </c>
       <c r="N33" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37387,25 +37387,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>276.3515302285465</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37551,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>306.2096305948394</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700254</v>
+        <v>474.8949538093263</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>117.7337452574857</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
+        <v>244.2170912967377</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L44" t="n">
-        <v>244.2170912967376</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>506.6900639491208</v>
+        <v>474.8949538093263</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
         <v>522.0635703700256</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
